--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="931">
   <si>
     <t>anchor score</t>
   </si>
@@ -313,502 +313,502 @@
     <t>sick</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>nurses</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>nurses</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>beach</t>
   </si>
   <si>
     <t>19</t>
@@ -3175,7 +3175,7 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3233,7 +3233,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03863826842896437</v>
+        <v>0.03938975653687005</v>
       </c>
       <c r="C3">
         <v>205</v>
@@ -3254,28 +3254,28 @@
         <v>87</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="K3">
-        <v>0.004796130094715144</v>
+        <v>0.007858579372979395</v>
       </c>
       <c r="L3">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M3">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3283,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01964620446443901</v>
+        <v>0.02002830981286197</v>
       </c>
       <c r="C4">
         <v>53</v>
@@ -3304,16 +3304,16 @@
         <v>463</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4">
-        <v>0.004133784777231371</v>
+        <v>0.007222458547363324</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2086</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3333,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01322045327670744</v>
+        <v>0.01347758212389772</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -3354,28 +3354,28 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>0.003910168941941719</v>
+        <v>0.004796130094715144</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3383,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01294209677009632</v>
+        <v>0.0131938117720761</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K6">
-        <v>0.003713550631974579</v>
+        <v>0.004133784777231371</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3155</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3433,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01206856746682626</v>
+        <v>0.01230329291647862</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -3454,16 +3454,16 @@
         <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K7">
-        <v>0.003631924166736424</v>
+        <v>0.003910168941941719</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3483,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01045168601355795</v>
+        <v>0.01065496421587162</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -3504,28 +3504,28 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="K8">
-        <v>0.003380542579372353</v>
+        <v>0.003713550631974579</v>
       </c>
       <c r="L8">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3533,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009729990157028377</v>
+        <v>0.009919231864546638</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3554,28 +3554,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="K9">
-        <v>0.003358817458939258</v>
+        <v>0.003631924166736424</v>
       </c>
       <c r="L9">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3583,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009729990157028377</v>
+        <v>0.009919231864546638</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -3604,28 +3604,28 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="K10">
-        <v>0.003285199016751519</v>
+        <v>0.003380542579372353</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3633,7 +3633,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009348272162319744</v>
+        <v>0.00953008971380667</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -3654,28 +3654,28 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="K11">
-        <v>0.003192639571945198</v>
+        <v>0.003358817458939258</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3683,7 +3683,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008950289178888881</v>
+        <v>0.009124366231348349</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3704,16 +3704,16 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K12">
-        <v>0.003192639571945198</v>
+        <v>0.003285199016751519</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3733,7 +3733,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008095841174059783</v>
+        <v>0.008253299792501348</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -3754,28 +3754,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="K13">
-        <v>0.003023034727500337</v>
+        <v>0.003192639571945198</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>319</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3783,7 +3783,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008095841174059783</v>
+        <v>0.008253299792501348</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K14">
-        <v>0.002845065804994475</v>
+        <v>0.003192639571945198</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3833,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008095841174059783</v>
+        <v>0.008253299792501348</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -3854,28 +3854,28 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="K15">
-        <v>0.002791882315408637</v>
+        <v>0.003023034727500337</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3883,7 +3883,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007139860800146456</v>
+        <v>0.007278726248873185</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3904,16 +3904,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K16">
-        <v>0.002737665847292932</v>
+        <v>0.002845065804994475</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3933,7 +3933,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007139860800146456</v>
+        <v>0.007278726248873185</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3954,16 +3954,16 @@
         <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K17">
-        <v>0.002737665847292932</v>
+        <v>0.002791882315408637</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3983,7 +3983,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4004,16 +4004,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K18">
-        <v>0.002625876834148814</v>
+        <v>0.002737665847292932</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4033,7 +4033,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4054,16 +4054,16 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K19">
-        <v>0.002625876834148814</v>
+        <v>0.002737665847292932</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4083,7 +4083,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4104,7 +4104,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K20">
         <v>0.002625876834148814</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4133,7 +4133,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4154,16 +4154,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K21">
-        <v>0.002448642773690622</v>
+        <v>0.002625876834148814</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4183,7 +4183,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4204,28 +4204,28 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="K22">
-        <v>0.002396299022184118</v>
+        <v>0.002625876834148814</v>
       </c>
       <c r="L22">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4233,7 +4233,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4254,16 +4254,16 @@
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K23">
-        <v>0.002386641753906509</v>
+        <v>0.002448642773690622</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4283,7 +4283,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4304,28 +4304,28 @@
         <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="K24">
-        <v>0.002386641753906509</v>
+        <v>0.002396299022184118</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>140</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4333,7 +4333,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4354,28 +4354,28 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K25">
-        <v>0.002371049970198227</v>
+        <v>0.002386641753906509</v>
       </c>
       <c r="L25">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4383,7 +4383,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4404,28 +4404,28 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="K26">
-        <v>0.002323435629807657</v>
+        <v>0.002386641753906509</v>
       </c>
       <c r="L26">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4433,7 +4433,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4454,28 +4454,28 @@
         <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>282</v>
+        <v>99</v>
       </c>
       <c r="K27">
-        <v>0.002322986502292377</v>
+        <v>0.002371049970198227</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4483,7 +4483,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4504,28 +4504,28 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="K28">
-        <v>0.002322986502292377</v>
+        <v>0.002323435629807657</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4533,7 +4533,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4554,7 +4554,7 @@
         <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K29">
         <v>0.002322986502292377</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4583,7 +4583,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4604,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K30">
         <v>0.002322986502292377</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4633,7 +4633,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4654,28 +4654,28 @@
         <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="K31">
-        <v>0.002265897256047698</v>
+        <v>0.002322986502292377</v>
       </c>
       <c r="L31">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4683,7 +4683,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4704,16 +4704,16 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K32">
-        <v>0.002257537091206966</v>
+        <v>0.002322986502292377</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4733,7 +4733,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4754,28 +4754,28 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="K33">
-        <v>0.002257537091206966</v>
+        <v>0.002265897256047698</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4783,7 +4783,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4804,7 +4804,7 @@
         <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K34">
         <v>0.002257537091206966</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4833,7 +4833,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4854,16 +4854,16 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K35">
-        <v>0.002190132677834346</v>
+        <v>0.002257537091206966</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4883,7 +4883,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4904,28 +4904,28 @@
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="K36">
-        <v>0.002175860306899414</v>
+        <v>0.002257537091206966</v>
       </c>
       <c r="L36">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4933,7 +4933,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4954,28 +4954,28 @@
         <v>3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="K37">
-        <v>0.002173105114676546</v>
+        <v>0.002190132677834346</v>
       </c>
       <c r="L37">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4983,7 +4983,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5004,28 +5004,28 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="K38">
-        <v>0.002120586846809269</v>
+        <v>0.002175860306899414</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5033,7 +5033,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K39">
         <v>0.002120586846809269</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5083,7 +5083,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5104,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K40">
         <v>0.002120586846809269</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5133,7 +5133,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5154,28 +5154,28 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="K41">
-        <v>0.002109897803472494</v>
+        <v>0.002120586846809269</v>
       </c>
       <c r="L41">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5183,7 +5183,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5204,28 +5204,28 @@
         <v>8</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="K42">
-        <v>0.002048681528008468</v>
+        <v>0.002109897803472494</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5233,7 +5233,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -5254,7 +5254,7 @@
         <v>22</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K43">
         <v>0.002048681528008468</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5283,7 +5283,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -5304,7 +5304,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K44">
         <v>0.002048681528008468</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5333,7 +5333,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K45">
         <v>0.002048681528008468</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5383,7 +5383,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K46">
         <v>0.002048681528008468</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5433,7 +5433,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5454,16 +5454,16 @@
         <v>10</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K47">
-        <v>0.001974158917500247</v>
+        <v>0.002048681528008468</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5483,7 +5483,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5504,7 +5504,7 @@
         <v>32</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K48">
         <v>0.001974158917500247</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5533,7 +5533,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5554,7 +5554,7 @@
         <v>28</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K49">
         <v>0.001974158917500247</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5583,7 +5583,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5604,7 +5604,7 @@
         <v>75</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K50">
         <v>0.001974158917500247</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5633,7 +5633,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5654,28 +5654,28 @@
         <v>11</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>116</v>
+        <v>301</v>
       </c>
       <c r="K51">
-        <v>0.001953493094187753</v>
+        <v>0.001974158917500247</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5704,28 +5704,28 @@
         <v>50</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K52">
-        <v>0.001897808394195088</v>
+        <v>0.001953493094187753</v>
       </c>
       <c r="L52">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="M52">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>791</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5733,7 +5733,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5754,28 +5754,28 @@
         <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="K53">
-        <v>0.001896710536662983</v>
+        <v>0.001897808394195088</v>
       </c>
       <c r="L53">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="M53">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5783,7 +5783,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5804,7 +5804,7 @@
         <v>26</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K54">
         <v>0.001896710536662983</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -5833,7 +5833,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>11</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K55">
         <v>0.001896710536662983</v>
@@ -5883,7 +5883,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5904,7 +5904,7 @@
         <v>15</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K56">
         <v>0.001896710536662983</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5933,7 +5933,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5954,7 +5954,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K57">
         <v>0.001896710536662983</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -5983,7 +5983,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>38</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K58">
         <v>0.001896710536662983</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6033,7 +6033,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6054,28 +6054,28 @@
         <v>30</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="K59">
-        <v>0.001894984109287585</v>
+        <v>0.001896710536662983</v>
       </c>
       <c r="L59">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M59">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -6083,7 +6083,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6183,7 +6183,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6233,7 +6233,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6283,7 +6283,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6333,7 +6333,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6383,7 +6383,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6404,7 +6404,7 @@
         <v>14</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K66">
         <v>0.001802695890470761</v>
@@ -6433,7 +6433,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6483,7 +6483,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6633,7 +6633,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6733,7 +6733,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6783,7 +6783,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6833,7 +6833,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6883,7 +6883,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6933,7 +6933,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6954,7 +6954,7 @@
         <v>24</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K77">
         <v>0.001719429199135986</v>
@@ -6983,7 +6983,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7033,7 +7033,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7083,7 +7083,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7233,7 +7233,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7283,7 +7283,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7383,7 +7383,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7483,7 +7483,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7583,7 +7583,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7633,7 +7633,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7683,7 +7683,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7704,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K92">
         <v>0.00159735595493611</v>
@@ -7733,7 +7733,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7783,25 +7783,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002690599709241655</v>
+        <v>0.002627677301797836</v>
       </c>
       <c r="C94">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E94">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F94">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>339</v>
@@ -7833,25 +7833,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002577545784943539</v>
+        <v>0.002252081710555702</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="E95">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F95">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>340</v>
@@ -7883,25 +7883,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002452741968779938</v>
+        <v>0.00213680591843151</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E96">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F96">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>341</v>
@@ -7933,25 +7933,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002209115904917114</v>
+        <v>0.001945697526349911</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="E97">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F97">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>342</v>
@@ -7983,13 +7983,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002096039374594138</v>
+        <v>0.001924430022104029</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E98">
         <v>0.97</v>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>29</v>
+        <v>2999</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>343</v>
@@ -8033,25 +8033,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.0019085769985481</v>
+        <v>0.001916728911843781</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E99">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F99">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>791</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>344</v>
@@ -8083,13 +8083,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001887715241327099</v>
+        <v>0.001864370027599838</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>0.97</v>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2999</v>
+        <v>12</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>345</v>
@@ -8133,25 +8133,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001880161054868546</v>
+        <v>0.001623568563557817</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E101">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F101">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>791</v>
+        <v>20</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>346</v>
@@ -8183,25 +8183,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001828801087152958</v>
+        <v>0.001590852507931133</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E102">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F102">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>347</v>
@@ -8233,25 +8233,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001592593696608813</v>
+        <v>0.001587607392199068</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E103">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F103">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>348</v>
@@ -8283,25 +8283,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001560501806473429</v>
+        <v>0.001553384410557442</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E104">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F104">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>349</v>
@@ -8333,25 +8333,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001557318601910557</v>
+        <v>0.001543662646283265</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E105">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F105">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>350</v>
@@ -8383,25 +8383,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001523748535290041</v>
+        <v>0.001534355627648266</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E106">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F106">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>351</v>
@@ -8433,25 +8433,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001514212245384893</v>
+        <v>0.001366585960840979</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E107">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F107">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>352</v>
@@ -8483,25 +8483,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001505082788492824</v>
+        <v>0.001356184848891385</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E108">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F108">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>353</v>
@@ -8533,13 +8533,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001340513875398116</v>
+        <v>0.001311637422124983</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E109">
         <v>0.98</v>
@@ -8551,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>354</v>
@@ -8583,25 +8583,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00133031119859071</v>
+        <v>0.001246980353454193</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E110">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F110">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>355</v>
@@ -8633,13 +8633,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001286613659317809</v>
+        <v>0.001209960796370498</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E111">
         <v>0.98</v>
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>356</v>
@@ -8683,13 +8683,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00122319013516392</v>
+        <v>0.001179665526239999</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E112">
         <v>0.98</v>
@@ -8701,10 +8701,10 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K112">
         <v>0.001503331938638976</v>
@@ -8733,25 +8733,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001186876846901214</v>
+        <v>0.00116627899115076</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E113">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F113">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>357</v>
@@ -8783,25 +8783,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.0011571595578813</v>
+        <v>0.001137798665484667</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E114">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F114">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>358</v>
@@ -8833,25 +8833,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001144028414620041</v>
+        <v>0.001062134532463729</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E115">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F115">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>359</v>
@@ -8883,25 +8883,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001116091444077946</v>
+        <v>0.001044030193937418</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F116">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>360</v>
@@ -8933,13 +8933,13 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001041870851234948</v>
+        <v>0.00104178750283085</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E117">
         <v>0.9399999999999999</v>
@@ -8951,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>361</v>
@@ -8983,19 +8983,19 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001024111912028159</v>
+        <v>0.001020802860451413</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E118">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F118">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -9033,25 +9033,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001021912007570824</v>
+        <v>0.001013013941359351</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
+        <v>29</v>
+      </c>
+      <c r="E119">
+        <v>0.97</v>
+      </c>
+      <c r="F119">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119">
         <v>32</v>
-      </c>
-      <c r="E119">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F119">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>4</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>363</v>
@@ -9083,25 +9083,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001001327715703379</v>
+        <v>0.0009969280049665721</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E120">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F120">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>364</v>
@@ -9133,25 +9133,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0009936873956529406</v>
+        <v>0.0009969280049665721</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F121">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>365</v>
@@ -9183,13 +9183,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0009779083509743151</v>
+        <v>0.0009628232915965878</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E122">
         <v>0.96</v>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>366</v>
@@ -9233,13 +9233,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0009779083509743151</v>
+        <v>0.0009628232915965878</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E123">
         <v>0.96</v>
@@ -9251,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>367</v>
@@ -9283,13 +9283,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0009444542962723295</v>
+        <v>0.0009447070681115363</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>0.96</v>
@@ -9301,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>189</v>
+        <v>876</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>368</v>
@@ -9333,25 +9333,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0009444542962723295</v>
+        <v>0.0009296877648705777</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E125">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F125">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>369</v>
@@ -9383,13 +9383,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0009266836988511619</v>
+        <v>0.0009258073387161493</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E126">
         <v>0.96</v>
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>876</v>
+        <v>35</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>370</v>
@@ -9433,25 +9433,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.000911950937817288</v>
+        <v>0.0009060601268444079</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E127">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F127">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>46</v>
+        <v>844</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>371</v>
@@ -9483,25 +9483,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0009081445434509447</v>
+        <v>0.0009048819152599303</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E128">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F128">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>372</v>
@@ -9533,25 +9533,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0008887740740673682</v>
+        <v>0.0008853935401935073</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
+        <v>22</v>
+      </c>
+      <c r="E129">
+        <v>0.95</v>
+      </c>
+      <c r="F129">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129">
         <v>23</v>
-      </c>
-      <c r="E129">
-        <v>0.96</v>
-      </c>
-      <c r="F129">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>844</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>373</v>
@@ -9583,13 +9583,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0008876183407125669</v>
+        <v>0.0008791563238442308</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130">
         <v>0.92</v>
@@ -9601,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>374</v>
@@ -9633,13 +9633,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0008685017699778389</v>
+        <v>0.000863726432566787</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E131">
         <v>0.95</v>
@@ -9651,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>375</v>
@@ -9683,25 +9683,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0008623835488782165</v>
+        <v>0.0008409667750426796</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E132">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F132">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>376</v>
@@ -9733,25 +9733,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0008472480331141228</v>
+        <v>0.0008246837833981082</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E133">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F133">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>377</v>
@@ -9783,13 +9783,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0008249225903065588</v>
+        <v>0.000817009658735679</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E134">
         <v>0.95</v>
@@ -9801,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>378</v>
@@ -9833,25 +9833,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0008089502498479263</v>
+        <v>0.000817009658735679</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E135">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F135">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>379</v>
@@ -9883,25 +9883,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0008014225341488784</v>
+        <v>0.0007917348267112004</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>380</v>
@@ -9933,25 +9933,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0008014225341488784</v>
+        <v>0.0007917348267112004</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E137">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F137">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>381</v>
@@ -9983,13 +9983,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0007766299019998402</v>
+        <v>0.0007650035989221958</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>0.9399999999999999</v>
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>382</v>
@@ -10033,13 +10033,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0007766299019998402</v>
+        <v>0.0007650035989221958</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>0.9399999999999999</v>
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>383</v>
@@ -10083,7 +10083,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0007504086595867124</v>
+        <v>0.0007650035989221958</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10101,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>399</v>
+        <v>633</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>384</v>
@@ -10133,7 +10133,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0007504086595867124</v>
+        <v>0.0007650035989221958</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>385</v>
@@ -10183,13 +10183,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0007504086595867124</v>
+        <v>0.0007366550078070942</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>0.9399999999999999</v>
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>633</v>
+        <v>26</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>386</v>
@@ -10233,13 +10233,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0007504086595867124</v>
+        <v>0.0007366550078070942</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>0.9399999999999999</v>
@@ -10251,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>387</v>
@@ -10283,7 +10283,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0007226009103292887</v>
+        <v>0.0007366550078070942</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10301,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>388</v>
@@ -10333,7 +10333,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0007226009103292887</v>
+        <v>0.0007366550078070942</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>389</v>
@@ -10383,25 +10383,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0007226009103292887</v>
+        <v>0.0007065008985564289</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F146">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>390</v>
@@ -10433,25 +10433,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0007226009103292887</v>
+        <v>0.0007065008985564289</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
+        <v>15</v>
+      </c>
+      <c r="E147">
+        <v>0.93</v>
+      </c>
+      <c r="F147">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147">
         <v>16</v>
-      </c>
-      <c r="E147">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F147">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>7</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>391</v>
@@ -10483,7 +10483,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.000693022089084914</v>
+        <v>0.0007065008985564289</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>392</v>
@@ -10533,25 +10533,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.000693022089084914</v>
+        <v>0.0007014038487223671</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E149">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F149">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>393</v>
@@ -10583,13 +10583,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.000693022089084914</v>
+        <v>0.0006743196606316734</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E150">
         <v>0.93</v>
@@ -10601,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>394</v>
@@ -10633,25 +10633,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0006880222821046412</v>
+        <v>0.0006398481384533682</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E151">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F151">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>330</v>
+        <v>6</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>395</v>
@@ -10683,25 +10683,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0006614548132590483</v>
+        <v>0.0006398481384533682</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F152">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>396</v>
@@ -10733,7 +10733,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.000627640947823408</v>
+        <v>0.0006398481384533682</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>397</v>
@@ -10783,7 +10783,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.000627640947823408</v>
+        <v>0.0006398481384533682</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -10801,7 +10801,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>398</v>
@@ -10833,7 +10833,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.000627640947823408</v>
+        <v>0.0006398481384533682</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>399</v>
@@ -10883,7 +10883,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.000627640947823408</v>
+        <v>0.0006398481384533682</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10901,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>400</v>
@@ -10933,25 +10933,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.000627640947823408</v>
+        <v>0.0006309700787422995</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E157">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F157">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>401</v>
@@ -10983,25 +10983,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.000627640947823408</v>
+        <v>0.0006261774834710268</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
+        <v>21</v>
+      </c>
+      <c r="E158">
+        <v>0.86</v>
+      </c>
+      <c r="F158">
+        <v>0.14</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158">
         <v>13</v>
-      </c>
-      <c r="E158">
-        <v>0.92</v>
-      </c>
-      <c r="F158">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>2</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>402</v>
@@ -11033,25 +11033,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0006189322660643939</v>
+        <v>0.0006027711135118654</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E159">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F159">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>403</v>
@@ -11083,25 +11083,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0006142311051828971</v>
+        <v>0.0006027711135118654</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E160">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F160">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>404</v>
@@ -11133,25 +11133,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0005912712880897601</v>
+        <v>0.0005931050409686955</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E161">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F161">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>405</v>
@@ -11183,25 +11183,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0005912712880897601</v>
+        <v>0.0005627075635927457</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F162">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>406</v>
@@ -11233,25 +11233,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0005817896274141668</v>
+        <v>0.0005627075635927457</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F163">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>407</v>
@@ -11283,25 +11283,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0005519720810854418</v>
+        <v>0.0005191927387473014</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E164">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F164">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>408</v>
@@ -11333,25 +11333,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0005519720810854418</v>
+        <v>0.0005112717743080207</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F165">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>409</v>
@@ -11383,28 +11383,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0005092874434831794</v>
+        <v>0.0005112717743080207</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E166">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F166">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K166">
         <v>0.001238463312001011</v>
@@ -11433,25 +11433,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0005015175972812936</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F167">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>410</v>
@@ -11483,25 +11483,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0005015175972812936</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E168">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F168">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>411</v>
@@ -11533,7 +11533,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11551,7 +11551,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>412</v>
@@ -11583,7 +11583,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>413</v>
@@ -11633,7 +11633,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11651,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>414</v>
@@ -11683,7 +11683,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>415</v>
@@ -11733,7 +11733,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11751,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>416</v>
@@ -11783,7 +11783,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11801,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>417</v>
@@ -11833,7 +11833,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>418</v>
@@ -11883,7 +11883,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0004626567923534629</v>
+        <v>0.0004716551530883551</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11901,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>419</v>
@@ -11933,25 +11933,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0004626567923534629</v>
+        <v>0.0004669345019988986</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F177">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>420</v>
@@ -11983,25 +11983,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0004626567923534629</v>
+        <v>0.0004200513599360286</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>421</v>
@@ -12033,25 +12033,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0004580262030838093</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E179">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F179">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>224</v>
+        <v>2</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>422</v>
@@ -12083,25 +12083,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.00041203750990357</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E180">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F180">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>423</v>
@@ -12133,7 +12133,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>424</v>
@@ -12183,7 +12183,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>425</v>
@@ -12233,7 +12233,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12251,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>426</v>
@@ -12283,7 +12283,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12301,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>427</v>
@@ -12333,7 +12333,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12351,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>428</v>
@@ -12383,7 +12383,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12401,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>429</v>
@@ -12433,7 +12433,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12451,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>430</v>
@@ -12483,7 +12483,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0004113873907685523</v>
+        <v>0.0004193885964248897</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>431</v>
@@ -12533,25 +12533,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004113873907685523</v>
+        <v>0.0003704233511928725</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E189">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F189">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>432</v>
@@ -12583,25 +12583,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004113873907685523</v>
+        <v>0.0003704233511928725</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E190">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F190">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>433</v>
@@ -12633,25 +12633,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003633563173296028</v>
+        <v>0.0003615237386424795</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>434</v>
@@ -12683,25 +12683,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003633563173296028</v>
+        <v>0.0003615237386424795</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E192">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F192">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>435</v>
@@ -12733,7 +12733,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003546264939219867</v>
+        <v>0.0003615237386424795</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12751,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>436</v>
@@ -12783,7 +12783,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003546264939219867</v>
+        <v>0.0003615237386424795</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12801,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>437</v>
@@ -12833,7 +12833,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003546264939219867</v>
+        <v>0.0003615237386424795</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>438</v>
@@ -12883,25 +12883,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003546264939219867</v>
+        <v>0.0003178817277135205</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>439</v>
@@ -12933,25 +12933,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003546264939219867</v>
+        <v>0.0002970211650573971</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F197">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>440</v>
@@ -12983,25 +12983,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003118170967256742</v>
+        <v>0.0002970211650573971</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>441</v>
@@ -13033,7 +13033,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002913545173560336</v>
+        <v>0.0002970211650573971</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13051,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>442</v>
@@ -13083,7 +13083,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002913545173560336</v>
+        <v>0.0002970211650573971</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13101,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>443</v>
@@ -13133,7 +13133,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002913545173560336</v>
+        <v>0.0002970211650573971</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13151,7 +13151,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>444</v>
@@ -13183,25 +13183,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002913545173560336</v>
+        <v>0.000288473005576221</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>445</v>
@@ -13233,28 +13233,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002913545173560336</v>
+        <v>0.0002623495891659835</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K203">
         <v>0.001101913061050548</v>
@@ -13283,25 +13283,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.000282969441903787</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>446</v>
@@ -13333,25 +13333,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002573444148845015</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>447</v>
@@ -13383,7 +13383,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>448</v>
@@ -13433,7 +13433,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13451,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>449</v>
@@ -13483,7 +13483,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13501,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>450</v>
@@ -13533,7 +13533,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13551,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>451</v>
@@ -13583,7 +13583,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13601,7 +13601,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>452</v>
@@ -13633,7 +13633,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13651,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>453</v>
@@ -13683,7 +13683,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13701,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>454</v>
@@ -13733,7 +13733,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002204879835846258</v>
+        <v>0.000224776325281526</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>455</v>
@@ -13783,25 +13783,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002204879835846258</v>
+        <v>0.0002039812184322098</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>456</v>
@@ -13833,25 +13833,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0002204879835846258</v>
+        <v>0.0002039812184322098</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>457</v>
@@ -13883,25 +13883,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002000896112387397</v>
+        <v>0.0002006191423671224</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>458</v>
@@ -13933,13 +13933,13 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0002000896112387397</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E217">
         <v>0.75</v>
@@ -13951,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>459</v>
@@ -13983,25 +13983,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001967916777427598</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="F218">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>460</v>
@@ -14033,7 +14033,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>461</v>
@@ -14083,7 +14083,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14101,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>462</v>
@@ -14133,7 +14133,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14151,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>463</v>
@@ -14183,7 +14183,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14201,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>464</v>
@@ -14233,7 +14233,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>465</v>
@@ -14283,7 +14283,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>466</v>
@@ -14333,7 +14333,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14351,7 +14351,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>467</v>
@@ -14383,7 +14383,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14401,7 +14401,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>468</v>
@@ -14433,7 +14433,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14451,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>469</v>
@@ -14483,7 +14483,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001414847209518935</v>
+        <v>0.0001442365027881105</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>470</v>
@@ -14533,25 +14533,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001414847209518935</v>
+        <v>0.0001434936168262689</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>471</v>
@@ -14583,25 +14583,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001414847209518935</v>
+        <v>0.0001016856553140235</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>472</v>
@@ -14633,25 +14633,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001407560079633053</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>473</v>
@@ -14683,13 +14683,13 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>9.97456697078277E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
         <v>3</v>
-      </c>
-      <c r="D232">
-        <v>9</v>
       </c>
       <c r="E232">
         <v>0.67</v>
@@ -14701,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>474</v>
@@ -14733,7 +14733,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14751,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>475</v>
@@ -14783,7 +14783,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14833,7 +14833,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14851,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>477</v>
@@ -14883,7 +14883,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14901,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>478</v>
@@ -14933,7 +14933,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>479</v>
@@ -14983,7 +14983,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15001,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>480</v>
@@ -15033,7 +15033,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15083,7 +15083,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>482</v>
@@ -15133,7 +15133,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15151,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>483</v>
@@ -15183,7 +15183,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15201,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>484</v>
@@ -15233,7 +15233,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15251,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>485</v>
@@ -15283,7 +15283,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15301,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>486</v>
@@ -15333,7 +15333,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>5.758818925631322E-05</v>
+        <v>5.870824046827435E-05</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15351,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>487</v>
@@ -15383,25 +15383,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>5.758818925631322E-05</v>
+        <v>2.868970818449247E-05</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F246">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>303</v>
+        <v>7</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>488</v>
@@ -15433,25 +15433,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>5.758818925631322E-05</v>
+        <v>1.773352502928117E-05</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E247">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F247">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>961</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>489</v>
@@ -15483,25 +15483,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>2.814235840588317E-05</v>
+        <v>0</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>490</v>
@@ -15533,25 +15533,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>1.739520018692582E-05</v>
+        <v>0</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F249">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>961</v>
+        <v>4</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>491</v>
@@ -15601,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>492</v>
@@ -15651,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>493</v>
@@ -15701,7 +15701,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>494</v>
@@ -15751,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>495</v>
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>496</v>
@@ -15851,7 +15851,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>497</v>
@@ -15886,10 +15886,10 @@
         <v>0</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E256">
         <v>0.5</v>
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>498</v>
@@ -15951,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>499</v>
@@ -15979,30 +15979,6 @@
       </c>
     </row>
     <row r="258" spans="1:17">
-      <c r="A258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-      <c r="C258">
-        <v>2</v>
-      </c>
-      <c r="D258">
-        <v>4</v>
-      </c>
-      <c r="E258">
-        <v>0.5</v>
-      </c>
-      <c r="F258">
-        <v>0.5</v>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258">
-        <v>2</v>
-      </c>
       <c r="J258" s="1" t="s">
         <v>500</v>
       </c>
@@ -16029,30 +16005,6 @@
       </c>
     </row>
     <row r="259" spans="1:17">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>2</v>
-      </c>
-      <c r="E259">
-        <v>0.5</v>
-      </c>
-      <c r="F259">
-        <v>0.5</v>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259">
-        <v>4</v>
-      </c>
       <c r="J259" s="1" t="s">
         <v>501</v>
       </c>
@@ -16184,7 +16136,7 @@
     </row>
     <row r="264" spans="1:17">
       <c r="J264" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K264">
         <v>0.001085523493493612</v>
@@ -16210,7 +16162,7 @@
     </row>
     <row r="265" spans="1:17">
       <c r="J265" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K265">
         <v>0.001066838071765265</v>
@@ -16236,7 +16188,7 @@
     </row>
     <row r="266" spans="1:17">
       <c r="J266" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K266">
         <v>0.001030978826026194</v>
@@ -16262,7 +16214,7 @@
     </row>
     <row r="267" spans="1:17">
       <c r="J267" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K267">
         <v>0.001030978826026194</v>
@@ -16288,7 +16240,7 @@
     </row>
     <row r="268" spans="1:17">
       <c r="J268" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K268">
         <v>0.0009581216635715873</v>
@@ -16314,7 +16266,7 @@
     </row>
     <row r="269" spans="1:17">
       <c r="J269" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K269">
         <v>0.0009581216635715873</v>
@@ -18264,7 +18216,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K344">
         <v>0.0009473021265100003</v>
@@ -18290,7 +18242,7 @@
     </row>
     <row r="345" spans="10:17">
       <c r="J345" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K345">
         <v>0.0009211001506791578</v>
@@ -18316,7 +18268,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K346">
         <v>0.0008836669349495111</v>
@@ -18342,7 +18294,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K347">
         <v>0.0008458092433360652</v>
@@ -18368,7 +18320,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K348">
         <v>0.0008322416488209383</v>
@@ -18394,7 +18346,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K349">
         <v>0.0008075140069506254</v>
@@ -18420,7 +18372,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K350">
         <v>0.0008030245833359561</v>
@@ -21488,7 +21440,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K468">
         <v>0.0007736240230728428</v>
@@ -21514,7 +21466,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K469">
         <v>0.0007687679621689562</v>
@@ -21540,7 +21492,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K470">
         <v>0.0007521443021297202</v>
@@ -21566,7 +21518,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K471">
         <v>0.0007295578021248652</v>
@@ -21592,7 +21544,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K472">
         <v>0.0006898703999132018</v>
@@ -21618,7 +21570,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K473">
         <v>0.0006898703999132018</v>
@@ -21644,7 +21596,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K474">
         <v>0.0006891495379113003</v>
@@ -21670,7 +21622,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K475">
         <v>0.0006541783842333301</v>
@@ -21696,7 +21648,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K476">
         <v>0.000649693134614399</v>
@@ -21722,7 +21674,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K477">
         <v>0.000649693134614399</v>
@@ -21748,7 +21700,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K478">
         <v>0.000623859222223574</v>
@@ -21774,7 +21726,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K479">
         <v>0.0006090143661748393</v>
@@ -21800,7 +21752,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K480">
         <v>0.0006090143661748393</v>
@@ -21826,7 +21778,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K481">
         <v>0.0006090143661748393</v>
@@ -21852,7 +21804,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K482">
         <v>0.0006090143661748393</v>
@@ -21878,7 +21830,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K483">
         <v>0.0005933611290206251</v>
@@ -21904,7 +21856,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K484">
         <v>0.0005678241283363564</v>
@@ -21930,7 +21882,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K485">
         <v>0.0005678241283363564</v>
@@ -21956,7 +21908,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K486">
         <v>0.0005678241283363564</v>
@@ -21982,7 +21934,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K487">
         <v>0.0005678241283363564</v>
@@ -28118,7 +28070,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K723">
         <v>0.0005318463364667485</v>
@@ -28144,7 +28096,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K724">
         <v>0.0005261151454993766</v>
@@ -28170,7 +28122,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K725">
         <v>0.0005261151454993766</v>
@@ -28196,7 +28148,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K726">
         <v>0.0005261151454993766</v>
@@ -28222,7 +28174,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K727">
         <v>0.0004838843389008781</v>
@@ -28248,7 +28200,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K728">
         <v>0.0004411350865400545</v>
@@ -28274,7 +28226,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K729">
         <v>0.0004411350865400545</v>
@@ -28300,7 +28252,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K730">
         <v>0.0004411350865400545</v>
@@ -28326,7 +28278,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K731">
         <v>0.0004411350865400545</v>
@@ -28352,7 +28304,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K732">
         <v>0.0004411350865400545</v>
@@ -28378,7 +28330,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K733">
         <v>0.0004411350865400545</v>
@@ -28404,7 +28356,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K734">
         <v>0.0004069880665270883</v>
@@ -28430,7 +28382,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K735">
         <v>0.0003978806712249954</v>
@@ -28456,7 +28408,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K736">
         <v>0.0003978806712249954</v>
@@ -28482,7 +28434,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K737">
         <v>0.0003541496529526681</v>
@@ -28508,7 +28460,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K738">
         <v>0.0003541496529526681</v>
@@ -28534,7 +28486,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K739">
         <v>0.0003439089391978822</v>
@@ -28560,7 +28512,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K740">
         <v>0.0003123091462158083</v>
@@ -28586,7 +28538,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K741">
         <v>0.0003099944599831797</v>
@@ -28612,7 +28564,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K742">
         <v>0.0003052650889603389</v>
@@ -28638,7 +28590,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K743">
         <v>0.0002655055752018994</v>
@@ -28664,7 +28616,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K744">
         <v>0.0002655055752018994</v>
@@ -28690,7 +28642,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K745">
         <v>0.0002655055752018994</v>
@@ -28716,7 +28668,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K746">
         <v>0.0002655055752018994</v>
@@ -28742,7 +28694,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K747">
         <v>0.0002655055752018994</v>
@@ -28768,7 +28720,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K748">
         <v>0.0002655055752018994</v>
@@ -28794,7 +28746,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K749">
         <v>0.0002655055752018994</v>
@@ -28820,7 +28772,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K750">
         <v>0.0002655055752018994</v>
@@ -28846,7 +28798,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K751">
         <v>0.0002655055752018994</v>
@@ -28872,7 +28824,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K752">
         <v>0.0002655055752018994</v>
@@ -28898,7 +28850,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K753">
         <v>0.0002492479014127148</v>
@@ -28924,7 +28876,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K754">
         <v>0.0002492479014127148</v>
@@ -28950,7 +28902,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K755">
         <v>0.0002208359151157795</v>
@@ -28976,7 +28928,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K756">
         <v>0.0002208359151157795</v>
@@ -29002,7 +28954,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K757">
         <v>0.0002208359151157795</v>
@@ -29028,7 +28980,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K758">
         <v>0.0002208359151157795</v>
@@ -29054,7 +29006,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K759">
         <v>0.0002208359151157795</v>
@@ -29080,7 +29032,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K760">
         <v>0.0002208359151157795</v>
@@ -29106,7 +29058,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K761">
         <v>0.0002208359151157795</v>
@@ -29132,7 +29084,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K762">
         <v>0.0002208359151157795</v>
@@ -29158,7 +29110,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K763">
         <v>0.0002208359151157795</v>
@@ -29184,7 +29136,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K764">
         <v>0.0002208359151157795</v>
@@ -29210,7 +29162,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K765">
         <v>0.0002179422237675684</v>
@@ -29236,7 +29188,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K766">
         <v>0.0001869353627540798</v>
@@ -29262,7 +29214,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K767">
         <v>0.0001762448812854467</v>
@@ -29288,7 +29240,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K768">
         <v>0.0001762448812854467</v>
@@ -29314,7 +29266,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K769">
         <v>0.0001762448812854467</v>
@@ -29340,7 +29292,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K770">
         <v>0.0001762448812854467</v>
@@ -29366,7 +29318,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K771">
         <v>0.0001762448812854467</v>
@@ -29392,7 +29344,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K772">
         <v>0.0001563898925136759</v>
@@ -29418,7 +29370,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K773">
         <v>0.0001563898925136759</v>
@@ -29444,7 +29396,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K774">
         <v>0.000132183262646977</v>
@@ -29470,7 +29422,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K775">
         <v>0.000132183262646977</v>
@@ -29496,7 +29448,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K776">
         <v>0.000132183262646977</v>
@@ -29522,7 +29474,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K777">
         <v>0.000132183262646977</v>
@@ -29548,7 +29500,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K778">
         <v>0.000132183262646977</v>
@@ -29574,7 +29526,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K779">
         <v>0.000126531783114985</v>
@@ -29600,7 +29552,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K780">
         <v>9.944200555692455E-05</v>
@@ -29626,7 +29578,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K781">
         <v>9.768288515824075E-05</v>
@@ -29652,7 +29604,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K782">
         <v>8.947148187623141E-05</v>
@@ -29678,7 +29630,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K783">
         <v>8.947148187623141E-05</v>
@@ -29704,7 +29656,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K784">
         <v>8.947148187623141E-05</v>
@@ -29730,7 +29682,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K785">
         <v>8.947148187623141E-05</v>
@@ -29756,7 +29708,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K786">
         <v>8.947148187623141E-05</v>
@@ -29782,7 +29734,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K787">
         <v>8.947148187623141E-05</v>
@@ -29808,7 +29760,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K788">
         <v>8.947148187623141E-05</v>
@@ -29834,7 +29786,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K789">
         <v>8.947148187623141E-05</v>
@@ -29860,7 +29812,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K790">
         <v>8.947148187623141E-05</v>
@@ -29886,7 +29838,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K791">
         <v>8.947148187623141E-05</v>
@@ -29912,7 +29864,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K792">
         <v>7.03161164640917E-05</v>
@@ -29938,7 +29890,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K793">
         <v>7.03161164640917E-05</v>
@@ -29964,7 +29916,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K794">
         <v>6.520198288656634E-05</v>
@@ -29990,7 +29942,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K795">
         <v>4.972100277846228E-05</v>
@@ -30016,7 +29968,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K796">
         <v>4.972100277846228E-05</v>
@@ -30042,7 +29994,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K797">
         <v>4.972100277846228E-05</v>
@@ -30068,7 +30020,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K798">
         <v>4.972100277846228E-05</v>
@@ -30094,7 +30046,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K799">
         <v>4.972100277846228E-05</v>
@@ -30120,7 +30072,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K800">
         <v>4.972100277846228E-05</v>
@@ -30146,7 +30098,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K801">
         <v>4.972100277846228E-05</v>
@@ -30172,7 +30124,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K802">
         <v>4.972100277846228E-05</v>
@@ -30198,7 +30150,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K803">
         <v>4.972100277846228E-05</v>
@@ -30224,7 +30176,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K804">
         <v>4.972100277846228E-05</v>
@@ -30250,7 +30202,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K805">
         <v>4.972100277846228E-05</v>
@@ -30276,7 +30228,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K806">
         <v>4.972100277846228E-05</v>
@@ -30302,7 +30254,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K807">
         <v>4.515508399734745E-05</v>
@@ -30328,7 +30280,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K808">
         <v>2.862060154240916E-05</v>
@@ -30354,7 +30306,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K809">
         <v>1.65241120048792E-05</v>
@@ -30380,7 +30332,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K810">
         <v>1.65241120048792E-05</v>
@@ -30406,7 +30358,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K811">
         <v>1.65241120048792E-05</v>
@@ -30432,7 +30384,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K812">
         <v>1.65241120048792E-05</v>
@@ -30458,7 +30410,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K813">
         <v>1.65241120048792E-05</v>
@@ -30484,7 +30436,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K814">
         <v>1.65241120048792E-05</v>
@@ -30510,7 +30462,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K815">
         <v>1.65241120048792E-05</v>
@@ -30536,7 +30488,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K816">
         <v>1.65241120048792E-05</v>
@@ -30562,7 +30514,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K817">
         <v>1.65241120048792E-05</v>
@@ -30588,7 +30540,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K818">
         <v>1.65241120048792E-05</v>
@@ -30614,7 +30566,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K819">
         <v>1.65241120048792E-05</v>
@@ -30640,7 +30592,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K820">
         <v>1.65241120048792E-05</v>
@@ -30666,7 +30618,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K821">
         <v>1.65241120048792E-05</v>
@@ -30692,7 +30644,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K822">
         <v>1.65241120048792E-05</v>
@@ -30718,7 +30670,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K823">
         <v>1.65241120048792E-05</v>
@@ -30744,7 +30696,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K824">
         <v>6.9931980567539E-06</v>
@@ -30770,7 +30722,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K825">
         <v>4.075383739940505E-06</v>
@@ -30796,7 +30748,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K826">
         <v>0</v>
@@ -30822,7 +30774,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K827">
         <v>0</v>
@@ -30848,7 +30800,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K828">
         <v>0</v>
@@ -30874,7 +30826,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K829">
         <v>0</v>
@@ -30900,7 +30852,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K830">
         <v>0</v>
@@ -30926,7 +30878,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K831">
         <v>0</v>
@@ -30952,7 +30904,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K832">
         <v>0</v>
@@ -30978,7 +30930,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K833">
         <v>0</v>
@@ -31004,7 +30956,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K834">
         <v>0</v>
@@ -31030,7 +30982,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K835">
         <v>0</v>
